--- a/data/data_for_database/area_of_interest.xlsx
+++ b/data/data_for_database/area_of_interest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
   <si>
     <t>intellectual</t>
   </si>
@@ -622,11 +622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S343"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUM(B2:N2)</f>
+        <f t="shared" ref="O2:O65" si="0">SUM(B2:N2)</f>
         <v>1</v>
       </c>
       <c r="P2">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUM(B3:N3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P3">
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <f>SUM(B4:N4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P4">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUM(B5:N5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P5">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUM(B6:N6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUM(B7:N7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P7">
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUM(B8:N8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P8">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUM(B9:N9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P9">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUM(B10:N10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P10">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f>SUM(B11:N11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P11">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUM(B12:N12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P12">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f>SUM(B13:N13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P13">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f>SUM(B14:N14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P14">
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f>SUM(B15:N15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P15">
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f>SUM(B16:N16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P16">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <f>SUM(B17:N17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P17">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f>SUM(B18:N18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P18">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <f>SUM(B19:N19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P19">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <f>SUM(B20:N20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P20">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <f>SUM(B21:N21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P21">
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <f>SUM(B22:N22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P22">
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <f>SUM(B23:N23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P23">
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <f>SUM(B24:N24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P24">
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <f>SUM(B25:N25)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P25">
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f>SUM(B26:N26)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P26">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f>SUM(B27:N27)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P27">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <f>SUM(B28:N28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P28">
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <f>SUM(B29:N29)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P29">
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f>SUM(B30:N30)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P30">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f>SUM(B31:N31)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P31">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f>SUM(B32:N32)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P32">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <f>SUM(B33:N33)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P33">
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f>SUM(B34:N34)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P34">
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f>SUM(B35:N35)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P35">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f>SUM(B36:N36)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P36">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <f>SUM(B37:N37)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P37">
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <f>SUM(B38:N38)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P38">
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <f>SUM(B39:N39)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P39">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <f>SUM(B40:N40)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P40">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <f>SUM(B41:N41)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P41">
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <f>SUM(B42:N42)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P42">
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <f>SUM(B43:N43)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P43">
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <f>SUM(B44:N44)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P44">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <f>SUM(B45:N45)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P45">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <f>SUM(B46:N46)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P46">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <f>SUM(B47:N47)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P47">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <f>SUM(B48:N48)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P48">
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <f>SUM(B49:N49)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P49">
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <f>SUM(B50:N50)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P50">
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <f>SUM(B51:N51)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P51">
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <f>SUM(B52:N52)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P52">
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <f>SUM(B53:N53)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P53">
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <f>SUM(B54:N54)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P54">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <f>SUM(B55:N55)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P55">
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <f>SUM(B56:N56)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P56">
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <f>SUM(B57:N57)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P57">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="O58">
-        <f>SUM(B58:N58)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P58">
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="O59">
-        <f>SUM(B59:N59)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P59">
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <f>SUM(B60:N60)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P60">
@@ -4297,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <f>SUM(B61:N61)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P61">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <f>SUM(B62:N62)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P62">
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <f>SUM(B63:N63)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P63">
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <f>SUM(B64:N64)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P64">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <f>SUM(B65:N65)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P65">
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <f>SUM(B66:N66)</f>
+        <f t="shared" ref="O66:O129" si="1">SUM(B66:N66)</f>
         <v>7</v>
       </c>
       <c r="P66">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <f>SUM(B67:N67)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P67">
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <f>SUM(B68:N68)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P68">
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <f>SUM(B69:N69)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P69">
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <f>SUM(B70:N70)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P70">
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <f>SUM(B71:N71)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P71">
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <f>SUM(B72:N72)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P72">
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <f>SUM(B73:N73)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P73">
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <f>SUM(B74:N74)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P74">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <f>SUM(B75:N75)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P75">
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <f>SUM(B76:N76)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P76">
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <f>SUM(B77:N77)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P77">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="O78">
-        <f>SUM(B78:N78)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P78">
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <f>SUM(B79:N79)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P79">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <f>SUM(B80:N80)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P80">
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <f>SUM(B81:N81)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P81">
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <f>SUM(B82:N82)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P82">
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <f>SUM(B83:N83)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P83">
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <f>SUM(B84:N84)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P84">
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <f>SUM(B85:N85)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P85">
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <f>SUM(B86:N86)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P86">
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <f>SUM(B87:N87)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P87">
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <f>SUM(B88:N88)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P88">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <f>SUM(B89:N89)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P89">
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <f>SUM(B90:N90)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P90">
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <f>SUM(B91:N91)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P91">
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <f>SUM(B92:N92)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P92">
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <f>SUM(B93:N93)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P93">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <f>SUM(B94:N94)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P94">
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <f>SUM(B95:N95)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P95">
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="O96">
-        <f>SUM(B96:N96)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P96">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="O97">
-        <f>SUM(B97:N97)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P97">
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <f>SUM(B98:N98)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P98">
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <f>SUM(B99:N99)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P99">
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="O100">
-        <f>SUM(B100:N100)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P100">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="O101">
-        <f>SUM(B101:N101)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P101">
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="O102">
-        <f>SUM(B102:N102)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P102">
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="O103">
-        <f>SUM(B103:N103)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P103">
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <f>SUM(B104:N104)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P104">
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="O105">
-        <f>SUM(B105:N105)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P105">
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <f>SUM(B106:N106)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P106">
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <f>SUM(B107:N107)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P107">
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="O108">
-        <f>SUM(B108:N108)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P108">
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <f>SUM(B109:N109)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P109">
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="O110">
-        <f>SUM(B110:N110)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P110">
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="O111">
-        <f>SUM(B111:N111)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P111">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <f>SUM(B112:N112)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P112">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <f>SUM(B113:N113)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P113">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="O114">
-        <f>SUM(B114:N114)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P114">
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <f>SUM(B115:N115)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P115">
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <f>SUM(B116:N116)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P116">
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <f>SUM(B117:N117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P117">
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <f>SUM(B118:N118)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P118">
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <f>SUM(B119:N119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P119">
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="O120">
-        <f>SUM(B120:N120)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P120">
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <f>SUM(B121:N121)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P121">
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="O122">
-        <f>SUM(B122:N122)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P122">
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="O123">
-        <f>SUM(B123:N123)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P123">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="O124">
-        <f>SUM(B124:N124)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P124">
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <f>SUM(B125:N125)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P125">
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <f>SUM(B126:N126)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P126">
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <f>SUM(B127:N127)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P127">
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <f>SUM(B128:N128)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P128">
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <f>SUM(B129:N129)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P129">
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <f>SUM(B130:N130)</f>
+        <f t="shared" ref="O130:O193" si="2">SUM(B130:N130)</f>
         <v>0</v>
       </c>
       <c r="P130">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="O131">
-        <f>SUM(B131:N131)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P131">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="O132">
-        <f>SUM(B132:N132)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P132">
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="O133">
-        <f>SUM(B133:N133)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P133">
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="O134">
-        <f>SUM(B134:N134)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P134">
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="O135">
-        <f>SUM(B135:N135)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P135">
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="O136">
-        <f>SUM(B136:N136)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P136">
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="O137">
-        <f>SUM(B137:N137)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P137">
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="O138">
-        <f>SUM(B138:N138)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P138">
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="O139">
-        <f>SUM(B139:N139)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P139">
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="O140">
-        <f>SUM(B140:N140)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P140">
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="O141">
-        <f>SUM(B141:N141)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P141">
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="O142">
-        <f>SUM(B142:N142)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P142">
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="O143">
-        <f>SUM(B143:N143)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P143">
@@ -9277,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="O144">
-        <f>SUM(B144:N144)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P144">
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="O145">
-        <f>SUM(B145:N145)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P145">
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <f>SUM(B146:N146)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P146">
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <f>SUM(B147:N147)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P147">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="O148">
-        <f>SUM(B148:N148)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P148">
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="O149">
-        <f>SUM(B149:N149)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P149">
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="O150">
-        <f>SUM(B150:N150)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P150">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="O151">
-        <f>SUM(B151:N151)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P151">
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <f>SUM(B152:N152)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P152">
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <f>SUM(B153:N153)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P153">
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="O154">
-        <f>SUM(B154:N154)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P154">
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="O155">
-        <f>SUM(B155:N155)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P155">
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <f>SUM(B156:N156)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P156">
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="O157">
-        <f>SUM(B157:N157)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P157">
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="O158">
-        <f>SUM(B158:N158)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P158">
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="O159">
-        <f>SUM(B159:N159)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P159">
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="O160">
-        <f>SUM(B160:N160)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P160">
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <f>SUM(B161:N161)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P161">
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <f>SUM(B162:N162)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P162">
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="O163">
-        <f>SUM(B163:N163)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P163">
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="O164">
-        <f>SUM(B164:N164)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P164">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <f>SUM(B165:N165)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P165">
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="O166">
-        <f>SUM(B166:N166)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P166">
@@ -10657,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <f>SUM(B167:N167)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P167">
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="O168">
-        <f>SUM(B168:N168)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P168">
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="O169">
-        <f>SUM(B169:N169)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P169">
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O170">
-        <f>SUM(B170:N170)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P170">
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="O171">
-        <f>SUM(B171:N171)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P171">
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="O172">
-        <f>SUM(B172:N172)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P172">
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="O173">
-        <f>SUM(B173:N173)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P173">
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="O174">
-        <f>SUM(B174:N174)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P174">
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <f>SUM(B175:N175)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P175">
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <f>SUM(B176:N176)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P176">
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <f>SUM(B177:N177)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P177">
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="O178">
-        <f>SUM(B178:N178)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P178">
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <f>SUM(B179:N179)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P179">
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <f>SUM(B180:N180)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P180">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <f>SUM(B181:N181)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P181">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <f>SUM(B182:N182)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P182">
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="O183">
-        <f>SUM(B183:N183)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P183">
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="O184">
-        <f>SUM(B184:N184)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P184">
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="O185">
-        <f>SUM(B185:N185)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P185">
@@ -11797,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="O186">
-        <f>SUM(B186:N186)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P186">
@@ -11857,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="O187">
-        <f>SUM(B187:N187)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P187">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="O188">
-        <f>SUM(B188:N188)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P188">
@@ -11977,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="O189">
-        <f>SUM(B189:N189)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P189">
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="O190">
-        <f>SUM(B190:N190)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P190">
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="O191">
-        <f>SUM(B191:N191)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P191">
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="O192">
-        <f>SUM(B192:N192)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P192">
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="O193">
-        <f>SUM(B193:N193)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P193">
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="O194">
-        <f>SUM(B194:N194)</f>
+        <f t="shared" ref="O194:O257" si="3">SUM(B194:N194)</f>
         <v>0</v>
       </c>
       <c r="P194">
@@ -12337,7 +12337,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <f>SUM(B195:N195)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P195">
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="O196">
-        <f>SUM(B196:N196)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P196">
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="O197">
-        <f>SUM(B197:N197)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P197">
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="O198">
-        <f>SUM(B198:N198)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P198">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="O199">
-        <f>SUM(B199:N199)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P199">
@@ -12637,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="O200">
-        <f>SUM(B200:N200)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P200">
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="O201">
-        <f>SUM(B201:N201)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P201">
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="O202">
-        <f>SUM(B202:N202)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P202">
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="O203">
-        <f>SUM(B203:N203)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P203">
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="O204">
-        <f>SUM(B204:N204)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P204">
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="O205">
-        <f>SUM(B205:N205)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P205">
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="O206">
-        <f>SUM(B206:N206)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P206">
@@ -13057,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="O207">
-        <f>SUM(B207:N207)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P207">
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="O208">
-        <f>SUM(B208:N208)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P208">
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="O209">
-        <f>SUM(B209:N209)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P209">
@@ -13237,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="O210">
-        <f>SUM(B210:N210)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P210">
@@ -13297,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="O211">
-        <f>SUM(B211:N211)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P211">
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="O212">
-        <f>SUM(B212:N212)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P212">
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="O213">
-        <f>SUM(B213:N213)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P213">
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="O214">
-        <f>SUM(B214:N214)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P214">
@@ -13537,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="O215">
-        <f>SUM(B215:N215)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P215">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="O216">
-        <f>SUM(B216:N216)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P216">
@@ -13657,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="O217">
-        <f>SUM(B217:N217)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P217">
@@ -13717,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="O218">
-        <f>SUM(B218:N218)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P218">
@@ -13777,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="O219">
-        <f>SUM(B219:N219)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P219">
@@ -13837,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="O220">
-        <f>SUM(B220:N220)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P220">
@@ -13897,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="O221">
-        <f>SUM(B221:N221)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P221">
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="O222">
-        <f>SUM(B222:N222)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P222">
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="O223">
-        <f>SUM(B223:N223)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P223">
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="O224">
-        <f>SUM(B224:N224)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P224">
@@ -14137,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="O225">
-        <f>SUM(B225:N225)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P225">
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="O226">
-        <f>SUM(B226:N226)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P226">
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="O227">
-        <f>SUM(B227:N227)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P227">
@@ -14317,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="O228">
-        <f>SUM(B228:N228)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P228">
@@ -14377,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="O229">
-        <f>SUM(B229:N229)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P229">
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="O230">
-        <f>SUM(B230:N230)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P230">
@@ -14497,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="O231">
-        <f>SUM(B231:N231)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P231">
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="O232">
-        <f>SUM(B232:N232)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P232">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="O233">
-        <f>SUM(B233:N233)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P233">
@@ -14677,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="O234">
-        <f>SUM(B234:N234)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P234">
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="O235">
-        <f>SUM(B235:N235)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P235">
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="O236">
-        <f>SUM(B236:N236)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P236">
@@ -14857,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="O237">
-        <f>SUM(B237:N237)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P237">
@@ -14917,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="O238">
-        <f>SUM(B238:N238)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P238">
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="O239">
-        <f>SUM(B239:N239)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P239">
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
       <c r="O240">
-        <f>SUM(B240:N240)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P240">
@@ -15097,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="O241">
-        <f>SUM(B241:N241)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P241">
@@ -15157,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="O242">
-        <f>SUM(B242:N242)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P242">
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="O243">
-        <f>SUM(B243:N243)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P243">
@@ -15277,7 +15277,7 @@
         <v>0</v>
       </c>
       <c r="O244">
-        <f>SUM(B244:N244)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P244">
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="O245">
-        <f>SUM(B245:N245)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P245">
@@ -15397,7 +15397,7 @@
         <v>0</v>
       </c>
       <c r="O246">
-        <f>SUM(B246:N246)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P246">
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="O247">
-        <f>SUM(B247:N247)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P247">
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="O248">
-        <f>SUM(B248:N248)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P248">
@@ -15577,7 +15577,7 @@
         <v>0</v>
       </c>
       <c r="O249">
-        <f>SUM(B249:N249)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P249">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="O250">
-        <f>SUM(B250:N250)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P250">
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="O251">
-        <f>SUM(B251:N251)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P251">
@@ -15757,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="O252">
-        <f>SUM(B252:N252)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P252">
@@ -15817,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="O253">
-        <f>SUM(B253:N253)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P253">
@@ -15877,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="O254">
-        <f>SUM(B254:N254)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P254">
@@ -15937,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="O255">
-        <f>SUM(B255:N255)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P255">
@@ -15997,7 +15997,7 @@
         <v>0</v>
       </c>
       <c r="O256">
-        <f>SUM(B256:N256)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P256">
@@ -16057,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="O257">
-        <f>SUM(B257:N257)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P257">
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="O258">
-        <f>SUM(B258:N258)</f>
+        <f t="shared" ref="O258:O321" si="4">SUM(B258:N258)</f>
         <v>0</v>
       </c>
       <c r="P258">
@@ -16177,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="O259">
-        <f>SUM(B259:N259)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P259">
@@ -16237,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="O260">
-        <f>SUM(B260:N260)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P260">
@@ -16297,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="O261">
-        <f>SUM(B261:N261)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P261">
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="O262">
-        <f>SUM(B262:N262)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P262">
@@ -16417,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="O263">
-        <f>SUM(B263:N263)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P263">
@@ -16477,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="O264">
-        <f>SUM(B264:N264)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P264">
@@ -16537,7 +16537,7 @@
         <v>0</v>
       </c>
       <c r="O265">
-        <f>SUM(B265:N265)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P265">
@@ -16597,7 +16597,7 @@
         <v>0</v>
       </c>
       <c r="O266">
-        <f>SUM(B266:N266)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P266">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="O267">
-        <f>SUM(B267:N267)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P267">
@@ -16717,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="O268">
-        <f>SUM(B268:N268)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P268">
@@ -16777,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="O269">
-        <f>SUM(B269:N269)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P269">
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="O270">
-        <f>SUM(B270:N270)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P270">
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="O271">
-        <f>SUM(B271:N271)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P271">
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="O272">
-        <f>SUM(B272:N272)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P272">
@@ -17017,7 +17017,7 @@
         <v>0</v>
       </c>
       <c r="O273">
-        <f>SUM(B273:N273)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P273">
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="O274">
-        <f>SUM(B274:N274)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P274">
@@ -17137,7 +17137,7 @@
         <v>0</v>
       </c>
       <c r="O275">
-        <f>SUM(B275:N275)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P275">
@@ -17197,7 +17197,7 @@
         <v>0</v>
       </c>
       <c r="O276">
-        <f>SUM(B276:N276)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P276">
@@ -17257,7 +17257,7 @@
         <v>0</v>
       </c>
       <c r="O277">
-        <f>SUM(B277:N277)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P277">
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="O278">
-        <f>SUM(B278:N278)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P278">
@@ -17377,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="O279">
-        <f>SUM(B279:N279)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P279">
@@ -17437,7 +17437,7 @@
         <v>0</v>
       </c>
       <c r="O280">
-        <f>SUM(B280:N280)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P280">
@@ -17497,7 +17497,7 @@
         <v>0</v>
       </c>
       <c r="O281">
-        <f>SUM(B281:N281)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P281">
@@ -17557,7 +17557,7 @@
         <v>0</v>
       </c>
       <c r="O282">
-        <f>SUM(B282:N282)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P282">
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="O283">
-        <f>SUM(B283:N283)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P283">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="O284">
-        <f>SUM(B284:N284)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P284">
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="O285">
-        <f>SUM(B285:N285)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P285">
@@ -17797,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="O286">
-        <f>SUM(B286:N286)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P286">
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="O287">
-        <f>SUM(B287:N287)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P287">
@@ -17917,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="O288">
-        <f>SUM(B288:N288)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P288">
@@ -17977,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="O289">
-        <f>SUM(B289:N289)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P289">
@@ -18037,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="O290">
-        <f>SUM(B290:N290)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P290">
@@ -18097,7 +18097,7 @@
         <v>0</v>
       </c>
       <c r="O291">
-        <f>SUM(B291:N291)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P291">
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="O292">
-        <f>SUM(B292:N292)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P292">
@@ -18217,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="O293">
-        <f>SUM(B293:N293)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P293">
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="O294">
-        <f>SUM(B294:N294)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P294">
@@ -18337,7 +18337,7 @@
         <v>0</v>
       </c>
       <c r="O295">
-        <f>SUM(B295:N295)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P295">
@@ -18397,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="O296">
-        <f>SUM(B296:N296)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P296">
@@ -18457,7 +18457,7 @@
         <v>0</v>
       </c>
       <c r="O297">
-        <f>SUM(B297:N297)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P297">
@@ -18517,7 +18517,7 @@
         <v>0</v>
       </c>
       <c r="O298">
-        <f>SUM(B298:N298)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P298">
@@ -18577,7 +18577,7 @@
         <v>0</v>
       </c>
       <c r="O299">
-        <f>SUM(B299:N299)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P299">
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
       <c r="O300">
-        <f>SUM(B300:N300)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P300">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="O301">
-        <f>SUM(B301:N301)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P301">
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="O302">
-        <f>SUM(B302:N302)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P302">
@@ -18817,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="O303">
-        <f>SUM(B303:N303)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P303">
@@ -18877,7 +18877,7 @@
         <v>0</v>
       </c>
       <c r="O304">
-        <f>SUM(B304:N304)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P304">
@@ -18937,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="O305">
-        <f>SUM(B305:N305)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P305">
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
       <c r="O306">
-        <f>SUM(B306:N306)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P306">
@@ -19057,7 +19057,7 @@
         <v>0</v>
       </c>
       <c r="O307">
-        <f>SUM(B307:N307)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P307">
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="O308">
-        <f>SUM(B308:N308)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P308">
@@ -19177,7 +19177,7 @@
         <v>0</v>
       </c>
       <c r="O309">
-        <f>SUM(B309:N309)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P309">
@@ -19237,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="O310">
-        <f>SUM(B310:N310)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P310">
@@ -19297,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="O311">
-        <f>SUM(B311:N311)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P311">
@@ -19357,7 +19357,7 @@
         <v>0</v>
       </c>
       <c r="O312">
-        <f>SUM(B312:N312)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P312">
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="O313">
-        <f>SUM(B313:N313)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P313">
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="O314">
-        <f>SUM(B314:N314)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P314">
@@ -19537,7 +19537,7 @@
         <v>0</v>
       </c>
       <c r="O315">
-        <f>SUM(B315:N315)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P315">
@@ -19597,7 +19597,7 @@
         <v>0</v>
       </c>
       <c r="O316">
-        <f>SUM(B316:N316)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P316">
@@ -19657,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="O317">
-        <f>SUM(B317:N317)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P317">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="O318">
-        <f>SUM(B318:N318)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P318">
@@ -19777,7 +19777,7 @@
         <v>0</v>
       </c>
       <c r="O319">
-        <f>SUM(B319:N319)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P319">
@@ -19837,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="O320">
-        <f>SUM(B320:N320)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P320">
@@ -19897,7 +19897,7 @@
         <v>0</v>
       </c>
       <c r="O321">
-        <f>SUM(B321:N321)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P321">
@@ -19957,7 +19957,7 @@
         <v>0</v>
       </c>
       <c r="O322">
-        <f>SUM(B322:N322)</f>
+        <f t="shared" ref="O322:O343" si="5">SUM(B322:N322)</f>
         <v>0</v>
       </c>
       <c r="P322">
@@ -20017,7 +20017,7 @@
         <v>0</v>
       </c>
       <c r="O323">
-        <f>SUM(B323:N323)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P323">
@@ -20077,7 +20077,7 @@
         <v>0</v>
       </c>
       <c r="O324">
-        <f>SUM(B324:N324)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P324">
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="O325">
-        <f>SUM(B325:N325)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P325">
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="O326">
-        <f>SUM(B326:N326)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P326">
@@ -20257,7 +20257,7 @@
         <v>0</v>
       </c>
       <c r="O327">
-        <f>SUM(B327:N327)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P327">
@@ -20317,7 +20317,7 @@
         <v>0</v>
       </c>
       <c r="O328">
-        <f>SUM(B328:N328)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P328">
@@ -20377,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="O329">
-        <f>SUM(B329:N329)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P329">
@@ -20437,7 +20437,7 @@
         <v>0</v>
       </c>
       <c r="O330">
-        <f>SUM(B330:N330)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P330">
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
       <c r="O331">
-        <f>SUM(B331:N331)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P331">
@@ -20557,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="O332">
-        <f>SUM(B332:N332)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P332">
@@ -20617,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="O333">
-        <f>SUM(B333:N333)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P333">
@@ -20677,7 +20677,7 @@
         <v>0</v>
       </c>
       <c r="O334">
-        <f>SUM(B334:N334)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P334">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="O335">
-        <f>SUM(B335:N335)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P335">
@@ -20797,7 +20797,7 @@
         <v>0</v>
       </c>
       <c r="O336">
-        <f>SUM(B336:N336)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P336">
@@ -20857,7 +20857,7 @@
         <v>0</v>
       </c>
       <c r="O337">
-        <f>SUM(B337:N337)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P337">
@@ -20917,7 +20917,7 @@
         <v>0</v>
       </c>
       <c r="O338">
-        <f>SUM(B338:N338)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P338">
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
       <c r="O339">
-        <f>SUM(B339:N339)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P339">
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="O340">
-        <f>SUM(B340:N340)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P340">
@@ -21097,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="O341">
-        <f>SUM(B341:N341)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P341">
@@ -21157,7 +21157,7 @@
         <v>0</v>
       </c>
       <c r="O342">
-        <f>SUM(B342:N342)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P342">
@@ -21217,7 +21217,7 @@
         <v>0</v>
       </c>
       <c r="O343">
-        <f>SUM(B343:N343)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P343">
@@ -21244,13 +21244,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52:A72"/>
+      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21346,7 +21346,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUM(B2:N2)</f>
+        <f t="shared" ref="O2:O31" si="0">SUM(B2:N2)</f>
         <v>1</v>
       </c>
     </row>
@@ -21394,7 +21394,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUM(B3:N3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -21442,7 +21442,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <f>SUM(B4:N4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -21490,7 +21490,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUM(B5:N5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -21538,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUM(B6:N6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -21586,16 +21586,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUM(B7:N7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -21604,10 +21604,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -21634,22 +21634,22 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUM(B8:N8)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -21682,25 +21682,25 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUM(B9:N9)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -21730,13 +21730,13 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUM(B10:N10)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -21748,13 +21748,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -21778,13 +21778,13 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f>SUM(B11:N11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -21826,13 +21826,13 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUM(B12:N12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -21874,13 +21874,13 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f>SUM(B13:N13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -21922,13 +21922,13 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f>SUM(B14:N14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -21970,22 +21970,22 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f>SUM(B15:N15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -22018,13 +22018,13 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f>SUM(B16:N16)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -22066,25 +22066,25 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <f>SUM(B17:N17)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -22114,13 +22114,13 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f>SUM(B18:N18)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -22162,18 +22162,18 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <f>SUM(B19:N19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20">
@@ -22183,13 +22183,13 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -22210,28 +22210,28 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <f>SUM(B20:N20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -22258,19 +22258,19 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <f>SUM(B21:N21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -22306,19 +22306,19 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <f>SUM(B22:N22)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -22330,7 +22330,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -22354,16 +22354,16 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <f>SUM(B23:N23)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -22402,25 +22402,25 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <f>SUM(B24:N24)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -22450,13 +22450,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <f>SUM(B25:N25)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -22465,7 +22465,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -22498,25 +22498,25 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f>SUM(B26:N26)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -22525,10 +22525,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f>SUM(B27:N27)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -22573,10 +22573,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <f>SUM(B28:N28)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -22612,19 +22612,19 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -22633,7 +22633,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -22642,28 +22642,28 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f>SUM(B29:N29)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -22672,16 +22672,16 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -22690,19 +22690,19 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f>SUM(B30:N30)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -22738,13 +22738,13 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f>SUM(B31:N31)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -22762,19 +22762,19 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f>SUM(B32:N32)</f>
-        <v>7</v>
+        <f t="shared" ref="O32:O63" si="1">SUM(B32:N32)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -22807,7 +22807,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -22834,37 +22834,37 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <f>SUM(B33:N33)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -22882,13 +22882,13 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f>SUM(B34:N34)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -22900,94 +22900,94 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="4">
         <v>0</v>
       </c>
       <c r="O35">
-        <f>SUM(B35:N35)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="O36">
-        <f>SUM(B36:N36)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -22999,22 +22999,22 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -23026,31 +23026,31 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <f>SUM(B37:N37)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -23059,13 +23059,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <f>SUM(B38:N38)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -23092,16 +23092,16 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -23110,10 +23110,10 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -23122,13 +23122,13 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <f>SUM(B39:N39)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -23137,7 +23137,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -23170,22 +23170,22 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <f>SUM(B40:N40)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -23203,7 +23203,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -23218,28 +23218,28 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <f>SUM(B41:N41)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -23266,22 +23266,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <f>SUM(B42:N42)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -23293,16 +23293,16 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -23314,34 +23314,34 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <f>SUM(B43:N43)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -23362,13 +23362,13 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <f>SUM(B44:N44)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -23395,7 +23395,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -23410,13 +23410,13 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <f>SUM(B45:N45)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -23446,7 +23446,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <f>SUM(B46:N46)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" s="2">
-        <v>0</v>
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <f>SUM(B47:N47)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -23524,25 +23524,25 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -23554,37 +23554,37 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <f>SUM(B48:N48)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -23602,22 +23602,22 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <f>SUM(B49:N49)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -23632,46 +23632,46 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <f>SUM(B50:N50)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -23683,34 +23683,34 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <f>SUM(B51:N51)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="4">
         <v>1</v>
       </c>
       <c r="O52">
-        <f>SUM(B52:N52)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -23761,13 +23761,13 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -23776,43 +23776,43 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="4">
         <v>1</v>
       </c>
       <c r="O53">
-        <f>SUM(B53:N53)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -23842,13 +23842,13 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <f>SUM(B54:N54)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <f>SUM(B55:N55)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -23908,7 +23908,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -23917,7 +23917,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -23926,7 +23926,7 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <f>SUM(B56:N56)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -23962,10 +23962,10 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -23986,22 +23986,22 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <f>SUM(B57:N57)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -24034,13 +24034,13 @@
         <v>1</v>
       </c>
       <c r="O58">
-        <f>SUM(B58:N58)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -24049,22 +24049,22 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -24082,13 +24082,13 @@
         <v>1</v>
       </c>
       <c r="O59">
-        <f>SUM(B59:N59)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -24097,16 +24097,16 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -24115,10 +24115,10 @@
         <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -24130,43 +24130,43 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <f>SUM(B60:N60)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <f>SUM(B61:N61)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -24199,16 +24199,16 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -24217,7 +24217,7 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -24226,13 +24226,13 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <f>SUM(B62:N62)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -24241,31 +24241,31 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -24274,16 +24274,16 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <f>SUM(B63:N63)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -24301,16 +24301,16 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -24322,22 +24322,22 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <f>SUM(B64:N64)</f>
+        <f t="shared" ref="O64:O70" si="2">SUM(B64:N64)</f>
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -24352,13 +24352,13 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -24370,22 +24370,22 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <f>SUM(B65:N65)</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -24397,16 +24397,16 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -24418,13 +24418,13 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <f>SUM(B66:N66)</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -24451,10 +24451,10 @@
         <v>1</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -24466,13 +24466,13 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <f>SUM(B67:N67)</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -24481,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -24514,13 +24514,13 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <f>SUM(B68:N68)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -24532,7 +24532,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -24562,13 +24562,13 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <f>SUM(B69:N69)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -24577,7 +24577,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -24586,7 +24586,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -24595,10 +24595,10 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -24610,157 +24610,61 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <f>SUM(B70:N70)</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>67</v>
-      </c>
       <c r="B71">
-        <v>0</v>
+        <f t="shared" ref="B71:N71" si="3">SUM(B2:B70)</f>
+        <v>23</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71" s="4">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <f>SUM(B71:N71)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72" s="4">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <f>SUM(B72:N72)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B73">
-        <f>SUM(B2:B72)</f>
-        <v>24</v>
-      </c>
-      <c r="C73">
-        <f>SUM(C2:C72)</f>
-        <v>23</v>
-      </c>
-      <c r="D73">
-        <f>SUM(D2:D72)</f>
-        <v>27</v>
-      </c>
-      <c r="E73">
-        <f>SUM(E2:E72)</f>
-        <v>26</v>
-      </c>
-      <c r="F73">
-        <f>SUM(F2:F72)</f>
-        <v>32</v>
-      </c>
-      <c r="G73">
-        <f>SUM(G2:G72)</f>
-        <v>24</v>
-      </c>
-      <c r="H73">
-        <f>SUM(H2:H72)</f>
-        <v>22</v>
-      </c>
-      <c r="I73">
-        <f>SUM(I2:I72)</f>
-        <v>16</v>
-      </c>
-      <c r="J73">
-        <f>SUM(J2:J72)</f>
-        <v>25</v>
-      </c>
-      <c r="K73">
-        <f>SUM(K2:K72)</f>
-        <v>24</v>
-      </c>
-      <c r="L73">
-        <f>SUM(L2:L72)</f>
-        <v>27</v>
-      </c>
-      <c r="M73">
-        <f>SUM(M2:M72)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="N73">
-        <f>SUM(N2:N72)</f>
+      <c r="N71">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>

--- a/data/data_for_database/area_of_interest.xlsx
+++ b/data/data_for_database/area_of_interest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S343"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -21244,13 +21244,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21258,7 +21258,7 @@
     <col min="14" max="14" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -21345,12 +21345,8 @@
       <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O31" si="0">SUM(B2:N2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -21393,12 +21389,8 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -21441,1124 +21433,1028 @@
       <c r="N4" s="4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -22567,22 +22463,22 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -22593,12 +22489,8 @@
       <c r="N28" s="4">
         <v>0</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -22641,14 +22533,10 @@
       <c r="N29" s="4">
         <v>0</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -22657,7 +22545,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -22666,19 +22554,19 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -22689,12 +22577,8 @@
       <c r="N30" s="4">
         <v>0</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -22737,20 +22621,16 @@
       <c r="N31" s="4">
         <v>0</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -22759,7 +22639,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -22785,14 +22665,10 @@
       <c r="N32" s="4">
         <v>0</v>
       </c>
-      <c r="O32">
-        <f t="shared" ref="O32:O63" si="1">SUM(B32:N32)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -22804,19 +22680,19 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -22833,44 +22709,40 @@
       <c r="N33" s="4">
         <v>0</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -22881,1695 +22753,1551 @@
       <c r="N34" s="4">
         <v>0</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="1"/>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" s="4">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="1"/>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="1"/>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" s="4">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" s="4">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48" s="4">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49" s="4">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" s="4">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" s="4">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52" s="4">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53" s="4">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54" s="4">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55" s="4">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56" s="4">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57" s="4">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58" s="4">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59" s="4">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60" s="4">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61" s="4">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62" s="4">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>39</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63" s="4">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64" s="4">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <f t="shared" ref="O64:O70" si="2">SUM(B64:N64)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65" s="4">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>31</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66" s="4">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>50</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67" s="4">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>56</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68" s="4">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69" s="4">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>43</v>
-      </c>
       <c r="B70">
         <v>0</v>
       </c>
@@ -24580,13 +24308,13 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -24595,10 +24323,10 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -24609,67 +24337,9 @@
       <c r="N70" s="4">
         <v>1</v>
       </c>
-      <c r="O70">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <f t="shared" ref="B71:N71" si="3">SUM(B2:B70)</f>
-        <v>23</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O73">
+  <sortState ref="A2:N71">
     <sortCondition ref="N1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
